--- a/biology/Médecine/Bâtiment_Ured_à_Kragujevac/Bâtiment_Ured_à_Kragujevac.xlsx
+++ b/biology/Médecine/Bâtiment_Ured_à_Kragujevac/Bâtiment_Ured_à_Kragujevac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A2timent_Ured_%C3%A0_Kragujevac</t>
+          <t>Bâtiment_Ured_à_Kragujevac</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bâtiment Ured à Kragujevac (en serbe cyrillique : Зграда „Уред” у Крагујевцу ; en serbe latin : Zgrada „Ured” u Kragujevcu) se trouve à Kragujevac et dans le district de Šumadija, en Serbie. Il est inscrit sur la liste des monuments culturels protégés de la République de Serbie (identifiant no SK ?)[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bâtiment Ured à Kragujevac (en serbe cyrillique : Зграда „Уред” у Крагујевцу ; en serbe latin : Zgrada „Ured” u Kragujevcu) se trouve à Kragujevac et dans le district de Šumadija, en Serbie. Il est inscrit sur la liste des monuments culturels protégés de la République de Serbie (identifiant no SK ?),.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A2timent_Ured_%C3%A0_Kragujevac</t>
+          <t>Bâtiment_Ured_à_Kragujevac</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bâtiment, situé à l'angle des rues Nikole Pašića et Miloja Pavlovića, a été construit en 1931 pour abriter le bureau d'assurance des travailleurs, selon le projet de l'architecte Bogdan Nestorović, professeur à la Faculté d'architecture de l'université de Belgrade ; il est caractéristique des premières constructions publiques de Nestorović qui pratique un style néo-classique monumental et modernisé[1],[2].
-L'angle des rues Nikole Pašića et Miloja Pavlovića conditionne la forme du bâtiment qui s'inscrit dans un plan en V dont l'angle tronqué est mis en exergue[1],[2] ; un large escalier conduit à l'entrée en plein cintre, encadrée de deux piliers massifs couronnés par des chapiteaux ioniques qui supportent une architrave elle-même couronnée d'un attique avec des balustres aveugles[2]. La surface des façades reste très épurée[1].
-Le bâtiment est constitué d'un sous-sol, d'un rez-de-chaussée élevé et d'un étage[1],[2]. En plus des locaux administratifs, il disposait également d'unités de chirurgie et de médecine[1],[2].
-Il abrite aujourd'hui l'Institut de santé publique de Kragujevac[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bâtiment, situé à l'angle des rues Nikole Pašića et Miloja Pavlovića, a été construit en 1931 pour abriter le bureau d'assurance des travailleurs, selon le projet de l'architecte Bogdan Nestorović, professeur à la Faculté d'architecture de l'université de Belgrade ; il est caractéristique des premières constructions publiques de Nestorović qui pratique un style néo-classique monumental et modernisé,.
+L'angle des rues Nikole Pašića et Miloja Pavlovića conditionne la forme du bâtiment qui s'inscrit dans un plan en V dont l'angle tronqué est mis en exergue, ; un large escalier conduit à l'entrée en plein cintre, encadrée de deux piliers massifs couronnés par des chapiteaux ioniques qui supportent une architrave elle-même couronnée d'un attique avec des balustres aveugles. La surface des façades reste très épurée.
+Le bâtiment est constitué d'un sous-sol, d'un rez-de-chaussée élevé et d'un étage,. En plus des locaux administratifs, il disposait également d'unités de chirurgie et de médecine,.
+Il abrite aujourd'hui l'Institut de santé publique de Kragujevac.
 </t>
         </is>
       </c>
